--- a/repos_data.xlsx
+++ b/repos_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21629\Desktop\antipattern-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE6CD8-D9E2-4488-8B31-0C2EC5C2D2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{291B4FB7-1980-4505-8831-0630F61BE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BCC6FAAD-5C78-409B-9294-FFC72811599B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B2946D8-6F95-451B-965C-A3E6FBF0F8B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>repo</t>
   </si>
   <si>
-    <t>https://github.com/gautamvr/DocumentProcessor_GCP.git</t>
-  </si>
-  <si>
-    <t>https://github.com/ovokpus/Python-Azure-AI-REST-APIs.git</t>
+    <t>https://github.com/ovokpus/Python-Azure-AI-REST-APIs</t>
   </si>
 </sst>
 </file>
@@ -426,17 +423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE7CC74-B133-4308-BDA7-BA829111A5D9}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D55BF18-2A10-4C9A-85C7-987A2A04ED52}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -448,15 +442,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F19CC9E3-811C-459C-8985-70D5F22C6E71}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{9F9AD692-F1F8-4552-B7CF-52CB6CA179D1}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{102FB93A-55BA-4080-B843-C08BD25A5517}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/repos_data.xlsx
+++ b/repos_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21629\Desktop\antipattern-detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{291B4FB7-1980-4505-8831-0630F61BE758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C6190A-C28E-4FD4-AB45-95CC51E264B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0B2946D8-6F95-451B-965C-A3E6FBF0F8B8}"/>
+    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{0B2946D8-6F95-451B-965C-A3E6FBF0F8B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>repo</t>
   </si>
   <si>
     <t>https://github.com/ovokpus/Python-Azure-AI-REST-APIs</t>
+  </si>
+  <si>
+    <t>https://github.com/gautamvr/DocumentProcessor_GCP</t>
+  </si>
+  <si>
+    <t>https://github.com/ignaciofls/custom_formrecog</t>
+  </si>
+  <si>
+    <t>https://github.com/madeinusmate/Podcast-Translator</t>
+  </si>
+  <si>
+    <t>https://github.com/Apurva272/AzureAINLP</t>
+  </si>
+  <si>
+    <t>https://github.com/YUSRA100/Attendance-System-through-Face-Detection-and-Recognition-from-Azure-Cognitive-Services-API</t>
+  </si>
+  <si>
+    <t>https://github.com/Ewen2015/BatCat</t>
+  </si>
+  <si>
+    <t>https://github.com/augerai/a2ml</t>
+  </si>
+  <si>
+    <t>https://github.com/k164596848/LLM_Experiment</t>
+  </si>
+  <si>
+    <t>https://github.com/ramesh-15/Azure_OpenAI_API_Streamlit</t>
   </si>
 </sst>
 </file>
@@ -65,19 +92,53 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -86,9 +147,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -424,13 +494,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D55BF18-2A10-4C9A-85C7-987A2A04ED52}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="111.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -442,9 +515,63 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{102FB93A-55BA-4080-B843-C08BD25A5517}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{BA851048-20B5-4DB9-86E8-ADF084993DDE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{8A2F4CE6-35CB-4E34-81FF-3978B785E37E}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{CD86CD8B-2493-4DEA-8B32-6FEEEBE218B7}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{A0CE02CE-8A27-4B89-BE0B-F3DAA6E4F835}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{3D248538-549A-40A2-B186-F228EE39A7CE}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{48FC0480-AFF4-48E8-8939-FA87802AFF52}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{93071CA8-858C-47BD-98F3-BD4C634D6AEC}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{CFB2EE7D-6FCB-499A-BE3C-EA7D3D371F7D}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{CDD9AF9F-6397-4988-BF1A-D3CBA4FB205C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
